--- a/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCPP" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,56 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Liquified Petroleum Gas</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Naphtha</t>
-  </si>
-  <si>
-    <t>Kerosene</t>
-  </si>
-  <si>
-    <t>Aviation Turbine Fuel</t>
-  </si>
-  <si>
-    <t>High Speed Diesel Oil</t>
-  </si>
-  <si>
-    <t>Light Diesel Oil</t>
-  </si>
-  <si>
-    <t>Fuel oil</t>
-  </si>
-  <si>
-    <t>Lubricants</t>
-  </si>
-  <si>
-    <t>Bitumen</t>
-  </si>
-  <si>
-    <t>Petroleum Coke</t>
-  </si>
-  <si>
-    <t>Refinery Fuel and Losses</t>
-  </si>
-  <si>
-    <t>Other Pertroleum Products</t>
-  </si>
-  <si>
-    <t>Total including Refinery Fuel</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1970</v>
@@ -574,9 +526,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Liquified Petroleum Gas</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -728,11 +682,13 @@
       <c r="AY2" t="n">
         <v>26329.7799990071</v>
       </c>
-      <c r="AZ2" t="s"/>
+      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1530</v>
@@ -884,11 +840,13 @@
       <c r="AY3" t="n">
         <v>29975.488406249</v>
       </c>
-      <c r="AZ3" t="s"/>
+      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Naphtha</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>900</v>
@@ -1040,11 +998,13 @@
       <c r="AY4" t="n">
         <v>14267.7787825455</v>
       </c>
-      <c r="AZ4" t="s"/>
+      <c r="AZ4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:52">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Kerosene</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>3280</v>
@@ -1188,19 +1148,21 @@
         <v>5396.81339000001</v>
       </c>
       <c r="AW5" t="n">
-        <v>3845.118110000009</v>
+        <v>3845.11811000001</v>
       </c>
       <c r="AX5" t="n">
-        <v>3459.464089999991</v>
+        <v>3459.46408999999</v>
       </c>
       <c r="AY5" t="n">
         <v>2396.8245022973</v>
       </c>
-      <c r="AZ5" t="s"/>
+      <c r="AZ5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Aviation Turbine Fuel</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>690</v>
@@ -1332,7 +1294,7 @@
         <v>5270.5</v>
       </c>
       <c r="AS6" t="n">
-        <v>5504.5869</v>
+        <v>5504.586899999999</v>
       </c>
       <c r="AT6" t="n">
         <v>5722.898630000001</v>
@@ -1352,11 +1314,13 @@
       <c r="AY6" t="n">
         <v>7998.60903551754</v>
       </c>
-      <c r="AZ6" t="s"/>
+      <c r="AZ6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:52">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>High Speed Diesel Oil</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>3840</v>
@@ -1503,16 +1467,18 @@
         <v>81073.43645999969</v>
       </c>
       <c r="AX7" t="n">
-        <v>83528.16559999991</v>
+        <v>83528.16559999989</v>
       </c>
       <c r="AY7" t="n">
         <v>82602.01250544679</v>
       </c>
-      <c r="AZ7" t="s"/>
+      <c r="AZ7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:52">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Light Diesel Oil</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1090</v>
@@ -1664,11 +1630,13 @@
       <c r="AY8" t="n">
         <v>627.799544639932</v>
       </c>
-      <c r="AZ8" t="s"/>
+      <c r="AZ8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:52">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuel oil</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>4660</v>
@@ -1820,11 +1788,13 @@
       <c r="AY9" t="n">
         <v>6301.5391187901</v>
       </c>
-      <c r="AZ9" t="s"/>
+      <c r="AZ9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:52">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Lubricants</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>550</v>
@@ -1976,11 +1946,13 @@
       <c r="AY10" t="n">
         <v>3833.38778189226</v>
       </c>
-      <c r="AZ10" t="s"/>
+      <c r="AZ10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:52">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Bitumen</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>780</v>
@@ -2118,13 +2090,13 @@
         <v>5072.832861</v>
       </c>
       <c r="AU11" t="n">
-        <v>5937.938752999999</v>
+        <v>5937.938753</v>
       </c>
       <c r="AV11" t="n">
-        <v>5935.501017999999</v>
+        <v>5935.501018</v>
       </c>
       <c r="AW11" t="n">
-        <v>6085.851527000001</v>
+        <v>6085.851527</v>
       </c>
       <c r="AX11" t="n">
         <v>6707.697045</v>
@@ -2132,11 +2104,13 @@
       <c r="AY11" t="n">
         <v>6720.36885</v>
       </c>
-      <c r="AZ11" t="s"/>
+      <c r="AZ11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:52">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Petroleum Coke</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>110</v>
@@ -2288,11 +2262,13 @@
       <c r="AY12" t="n">
         <v>21708.158825</v>
       </c>
-      <c r="AZ12" t="s"/>
+      <c r="AZ12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:52">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Refinery Fuel and Losses</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1220</v>
@@ -2444,11 +2420,13 @@
       <c r="AY13" t="n">
         <v>23509.948</v>
       </c>
-      <c r="AZ13" t="s"/>
+      <c r="AZ13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:52">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Other Pertroleum Products</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>390</v>
@@ -2600,11 +2578,13 @@
       <c r="AY14" t="n">
         <v>11360</v>
       </c>
-      <c r="AZ14" t="s"/>
+      <c r="AZ14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:52">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Total including Refinery Fuel</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>19140</v>
@@ -2756,7 +2736,7 @@
       <c r="AY15" t="n">
         <v>237636.574449784</v>
       </c>
-      <c r="AZ15" t="s"/>
+      <c r="AZ15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCPP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TCPP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Liquified Petroleum Gas</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Naphtha</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Aviation Turbine Fuel</t>
+  </si>
+  <si>
+    <t>High Speed Diesel Oil</t>
+  </si>
+  <si>
+    <t>Light Diesel Oil</t>
+  </si>
+  <si>
+    <t>Fuel oil</t>
+  </si>
+  <si>
+    <t>Lubricants</t>
+  </si>
+  <si>
+    <t>Bitumen</t>
+  </si>
+  <si>
+    <t>Petroleum Coke</t>
+  </si>
+  <si>
+    <t>Refinery Fuel and Losses</t>
+  </si>
+  <si>
+    <t>Other Pertroleum Products</t>
+  </si>
+  <si>
+    <t>Total including Refinery Fuel</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +99,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +118,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2392 +415,2342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1970</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1971</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1972</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1973</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1974</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1975</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1976</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1977</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1978</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1979</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1980</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1981</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1982</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1983</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1984</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1985</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1986</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1987</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1988</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1989</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1990</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1991</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1992</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1993</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1994</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1995</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1996</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1997</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1998</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1999</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>2000</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>2001</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>2002</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>2003</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>2004</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>2005</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>2006</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>2007</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>2008</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>2009</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>2011</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>2012</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>2013</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>2014</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>2015</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>2016</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>2017</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>2018</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>2019</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Liquified Petroleum Gas</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:52">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>180</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>212</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>244</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>269</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>289</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>340</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>368</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>391</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>408</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>410</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>410</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>492</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>601</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>746</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>953</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>1240</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>1497</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>1686</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>1962</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>2268</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>2420</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>2650</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>2866</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>3113</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>3434</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>3920</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>4267</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>4803</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>5352</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>6421</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>7016</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>7730</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>8350</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>9310</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>10250</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>10460</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>10850</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>12170</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>12191.117884</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>13140</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>14331.4</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>15349.7</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>15600.7</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>16293.648826</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>18000.102375</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>19623.222262</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>21608.210238</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>23341.821039</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>24906.798506</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>26329.7799990071</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:52">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1530</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1527</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1592</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1507</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1264</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1280</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1316</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1391</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1499</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1490</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1520</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1599</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>1722</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>1891</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>2084</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>2310</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>2505</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>2810</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>3052</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>3491</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>3550</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>3573</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>3595</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>3834</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>4141</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>4460</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>4955</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>5182</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>5507</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>5909</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>8070</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>7011</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>7570</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>7897</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>8251</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>8650</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>9290</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>10330</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>11257.772</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>12820</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>14194.4</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>14992.4</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>15743.9</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>17128.25591</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>19075.40244</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>21846.6309</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>23764.93403</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>26174.47836</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>28284.40487</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>29975.488406249</v>
       </c>
-      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Naphtha</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:52">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>900</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1164</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1297</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1534</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1713</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1840</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2196</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>2290</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>2515</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>2413</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>2330</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>2963</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>2958</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>2804</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>3125</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>3110</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>3249</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>2852</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>3364</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>3350</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>3450</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>3461</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>3382</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>3191</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>3400</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>4150</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>4030</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>6590</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>8891</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>10801</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>11673</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>11730</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>11930</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>11860</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>13990</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>12190</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>13890</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>13290</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>13910.7253</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>10130</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>10676.3</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>11221.5</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>12289.4</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>11305.20265</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>11082.02871</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>13270.84139</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>13240.78059</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>12888.60699</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>14131.23164</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>14267.7787825455</v>
       </c>
-      <c r="AZ4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Kerosene</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:52">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>3280</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3517</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3516</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3294</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2828</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3100</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>3322</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>3634</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>3952</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>3872</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>4230</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>4693</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>5214</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>5524</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>5959</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>6230</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>6645</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>7231</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>7731</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>8239</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>8420</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>8377</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>8478</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>8704</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>8964</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>9930</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>10153</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>11065</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>12243</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>11898</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>11307</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>10430</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>10410</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>10230</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>9400</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>9540</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>9510</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>9370</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>9302.868999999999</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>9300</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>8927.799999999999</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>8228.700000000001</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>7501.5</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>7164.770039999999</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>7086.71819</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>6826.30659</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>5396.81339000001</v>
       </c>
-      <c r="AW5" t="n">
-        <v>3845.11811000001</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3459.46408999999</v>
-      </c>
-      <c r="AY5" t="n">
+      <c r="AW5">
+        <v>3845.118110000009</v>
+      </c>
+      <c r="AX5">
+        <v>3459.464089999991</v>
+      </c>
+      <c r="AY5">
         <v>2396.8245022973</v>
       </c>
-      <c r="AZ5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Aviation Turbine Fuel</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:52">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>690</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>758</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>816</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>778</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>836</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>900</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>956</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1041</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>1154</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1144</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>1130</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1128</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>1145</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>1208</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>1336</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>1450</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>1603</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>1654</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>1713</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>1775</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>1680</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>1559</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>1565</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>1741</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>1903</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>2080</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>2154</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>2108</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>2112</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>2197</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>2249</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>2260</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>2270</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>2480</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>2810</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>3300</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>3980</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>4540</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>4423.20055</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>4630</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>5078.400000000001</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>5536.1</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>5270.5</v>
       </c>
-      <c r="AS6" t="n">
-        <v>5504.586899999999</v>
-      </c>
-      <c r="AT6" t="n">
+      <c r="AS6">
+        <v>5504.5869</v>
+      </c>
+      <c r="AT6">
         <v>5722.898630000001</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>6261.74492</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>6997.51497</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>7632.684399999999</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>8300.066340000001</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>7998.60903551754</v>
       </c>
-      <c r="AZ6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>High Speed Diesel Oil</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:52">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3840</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4340</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4770</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>5404</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>6950</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>6600</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>7106</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>7736</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>8638</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>9801</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>10350</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>10832</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>12013</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>12600</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>13696</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>14890</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>16009</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>17657</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>18795</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>20706</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>21140</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>22680</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>24293</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>25872</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>28261</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>32260</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>35019</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>36071</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>37217</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>39295</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>37958</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>36550</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>36640</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>37070</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>39650</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>40190</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>42900</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>47670</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>51710.357</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>56240</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>60071.1</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>64750</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>69079.89999999999</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>68363.92370999999</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>69416.22012000001</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>74647.07201</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>76026.57125999971</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>81073.43645999969</v>
       </c>
-      <c r="AX7" t="n">
-        <v>83528.16559999989</v>
-      </c>
-      <c r="AY7" t="n">
+      <c r="AX7">
+        <v>83528.16559999991</v>
+      </c>
+      <c r="AY7">
         <v>82602.01250544679</v>
       </c>
-      <c r="AZ7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Light Diesel Oil</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:52">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>1090</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1200</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1436</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1278</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1070</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>880</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1082</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1164</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1216</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>1266</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>1120</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1036</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1067</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1097</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>1198</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>1120</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>1156</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>1245</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>1437</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>1486</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>1510</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>1462</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>1407</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>1370</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>1369</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1310</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>1223</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>1235</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>1278</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>1512</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>1399</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>1590</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>2060</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>1620</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>1480</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>880</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>720</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>670</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>552.2569999999999</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>460</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>455.3</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>414.8</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>398.5</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>386.31654</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>365.26345</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>407.10756</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>448.98441</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>523.78752</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>597.96794</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>627.799544639932</v>
       </c>
-      <c r="AZ8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Fuel oil</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:52">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>4660</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5142</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5661</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>5912</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>5729</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5780</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5733</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5839</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>6668</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>7081</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>7470</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>7184</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>7301</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>7558</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>7944</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>7900</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>8047</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>8144</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>8456</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>8820</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>8990</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>9202</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>9267</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>9192</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>9889</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>11160</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>11507</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>11491</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>12510</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>12453</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>12653</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>12980</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>12740</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>12950</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>13540</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>12830</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>12620</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>12720</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>12588.05593</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>11630</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>10789.2</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>9306.6</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>7656.4</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>6235.6723</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>5960.856220000001</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>6632.30552</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>7150.42936</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>6720.972040000001</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>6563.57035</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>6301.5391187901</v>
       </c>
-      <c r="AZ9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Lubricants</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:52">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>550</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>362</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>609</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>612</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>475</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>440</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>454</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>478</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>544</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>566</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>590</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>592</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>605</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>617</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>664</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>700</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>755</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>791</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>847</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>926</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>890</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>932</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>846</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>688</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>688</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>960</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>1013</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>1081</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>1097</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>1243</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>1115</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>1140</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>1250</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>1430</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>1350</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>2080</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>1900</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>2290</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>2000</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>2540</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>2429.2</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>2632.6</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>3196</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>3305.305435</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>3310.01253</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>3571.1606</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>3470.06764</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>3883.883312</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>3667.954449</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>3833.38778189226</v>
       </c>
-      <c r="AZ10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Bitumen</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:52">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>780</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1011</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1109</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1066</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>399</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>690</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>882</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>908</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>943</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1069</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>1060</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>1292</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>1379</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1050</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>935</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>1130</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>1309</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>1379</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>1498</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>1695</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>1580</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>1706</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>1823</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>1824</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>1939</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>2010</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>2273</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>2178</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>2412</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>2879</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>2774</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>2580</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>2990</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>3370</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>3340</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>3510</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>3830</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>4510</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>4746.826793</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>4930</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>4535.599999999999</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>4638.099999999999</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>4676</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>5006.95755</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>5072.832861</v>
       </c>
-      <c r="AU11" t="n">
-        <v>5937.938753</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>5935.501018</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6085.851527</v>
-      </c>
-      <c r="AX11" t="n">
+      <c r="AU11">
+        <v>5937.938752999999</v>
+      </c>
+      <c r="AV11">
+        <v>5935.501017999999</v>
+      </c>
+      <c r="AW11">
+        <v>6085.851527000001</v>
+      </c>
+      <c r="AX11">
         <v>6707.697045</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>6720.36885</v>
       </c>
-      <c r="AZ11" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Petroleum Coke</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:52">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>110</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>188</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>141</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>139</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>89</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>150</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>175</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>146</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>155</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>185</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>140</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>174</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>103</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>114</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>234</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>160</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>208</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>246</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>316</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>383</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>290</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>266</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>152</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>132</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>197</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>320</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>276</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>227</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>393</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>328</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>448</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>1800</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>2560</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>2880</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>3130</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>4930</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>5440</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>5950</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>6165.6</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>6590</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>4982.400000000001</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>6137.7</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>10134.8</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>11755.777878</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>14557.450646</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>19297.422279</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>23963.986065</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>25656.728722</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>21345.929281</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>21708.158825</v>
       </c>
-      <c r="AZ12" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Refinery Fuel and Losses</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:52">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>1220</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1228</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1262</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1229</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1197</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1230</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1299</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>1451</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>1478</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>1440</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>1370</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>1584</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>1738</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>1935</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>2033</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>2490</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>2612</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>2522</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>2790</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>2684</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>2710</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>2629</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>2753</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>2836</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>3137</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>3240</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>3490</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>3514</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>3700</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>5544</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>6900</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>7270</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>7650</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>8240</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>8540</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>9140</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>10920</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>11750</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>12359.338</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13">
         <v>15120</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13">
         <v>16381.309</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13">
         <v>17294.7196</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13">
         <v>18347.203</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13">
         <v>17867.55</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13">
         <v>17669</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13">
         <v>18772.738</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13">
         <v>20069.703</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13">
         <v>21163.693</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13">
         <v>21453.662</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13">
         <v>23509.948</v>
       </c>
-      <c r="AZ13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Other Pertroleum Products</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:52">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>390</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>650</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>525</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>552</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>463</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>460</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>511</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>521</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>549</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>586</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>560</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>538</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>549</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>632</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>667</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>670</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>679</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>721</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>921</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>956</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>1140</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>1106</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>1228</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>1151</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>3328</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>2050</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>2298</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>2259</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>1550</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>2150</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>4869</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>4640</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>5360</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>6650</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>4460</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>4660</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>5830</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14">
         <v>5450</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14">
         <v>4749.97148</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14">
         <v>5400</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14">
         <v>4570</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14">
         <v>4920</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14">
         <v>5510</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14">
         <v>5960</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14">
         <v>5870</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14">
         <v>6350</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14">
         <v>6590</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14">
         <v>8340</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14">
         <v>11720</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14">
         <v>11360</v>
       </c>
-      <c r="AZ14" t="inlineStr"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Total including Refinery Fuel</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:52">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>19140</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>21299</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>22978</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>23574</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>23302</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>23670</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>25400</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>26990</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>29719</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>31323</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>32260</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>34107</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>36395</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>37776</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>40828</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>43360</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>46274</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>48938</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>52882</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>56779</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>57750</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>59603</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>61655</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>63648</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>70650</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>78070</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>82658</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>87804</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>94262</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>102630</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>106974</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>107710</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15">
         <v>111780</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15">
         <v>115990</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15">
         <v>120170</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15">
         <v>122360</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15">
         <v>131670</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15">
         <v>140700</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15">
         <v>145958.090937</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15">
         <v>152920</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15">
         <v>157422.409</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15">
         <v>165422.9196</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15">
         <v>175404.803</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15">
         <v>176274.40352</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15">
         <v>183189.118338</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15">
         <v>203446.640777</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15">
         <v>214666.970432</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15">
         <v>227329.85984</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15">
         <v>234669.960377</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15">
         <v>237636.574449784</v>
       </c>
-      <c r="AZ15" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TCPP_historical.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TCPP" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCPP" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Liquified Petroleum Gas</t>
-  </si>
-  <si>
-    <t>Petrol</t>
-  </si>
-  <si>
-    <t>Naphtha</t>
-  </si>
-  <si>
-    <t>Kerosene</t>
-  </si>
-  <si>
-    <t>Aviation Turbine Fuel</t>
-  </si>
-  <si>
-    <t>High Speed Diesel Oil</t>
-  </si>
-  <si>
-    <t>Light Diesel Oil</t>
-  </si>
-  <si>
-    <t>Fuel oil</t>
-  </si>
-  <si>
-    <t>Lubricants</t>
-  </si>
-  <si>
-    <t>Bitumen</t>
-  </si>
-  <si>
-    <t>Petroleum Coke</t>
-  </si>
-  <si>
-    <t>Refinery Fuel and Losses</t>
-  </si>
-  <si>
-    <t>Other Pertroleum Products</t>
-  </si>
-  <si>
-    <t>Total including Refinery Fuel</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -118,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -415,2342 +353,2392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AZ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Liquified Petroleum Gas</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>180</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>212</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>244</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>269</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>289</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>340</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>368</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>391</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>408</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>410</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>410</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>492</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>601</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>746</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>953</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>1240</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>1497</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>1686</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>1962</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>2268</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>2420</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>2650</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>2866</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>3113</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>3434</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>3920</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>4267</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>4803</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>5352</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>6421</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>7016</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>7730</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>8350</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>9310</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>10250</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>10460</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>10850</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>12170</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>12191.117884</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>13140</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>14331.4</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>15349.7</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>15600.7</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>16293.648826</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>18000.102375</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>19623.222262</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>21608.210238</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>23341.821039</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>24906.798506</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>26329.7799990071</v>
       </c>
+      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1530</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1527</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1592</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1507</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1264</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1280</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1316</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1391</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1499</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1490</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1520</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>1599</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>1722</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1891</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>2084</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>2310</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>2505</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>2810</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>3052</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>3491</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>3550</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>3573</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>3595</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>3834</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>4141</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>4460</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>4955</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>5182</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>5507</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>5909</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>8070</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>7011</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>7570</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>7897</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>8251</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>8650</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>9290</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>10330</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>11257.772</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>12820</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>14194.4</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>14992.4</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>15743.9</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>17128.25591</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>19075.40244</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>21846.6309</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>23764.93403</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>26174.47836</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>28284.40487</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>29975.488406249</v>
       </c>
+      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Naphtha</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>900</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1164</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1297</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1534</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>1713</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1840</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>2196</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>2290</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>2515</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>2413</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>2330</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>2963</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>2958</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>2804</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>3125</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>3110</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>3249</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>2852</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>3364</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>3350</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>3450</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>3461</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>3382</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>3191</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>3400</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>4150</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>4030</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>6590</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>8891</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>10801</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>11673</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>11730</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>11930</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>11860</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>13990</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>12190</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>13890</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>13290</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>13910.7253</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>10130</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>10676.3</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>11221.5</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>12289.4</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>11305.20265</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>11082.02871</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>13270.84139</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>13240.78059</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>12888.60699</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>14131.23164</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>14267.7787825455</v>
       </c>
+      <c r="AZ4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:52">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Kerosene</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3280</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>3517</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3516</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3294</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>2828</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>3100</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>3322</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>3634</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>3952</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>3872</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>4230</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>4693</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>5214</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>5524</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>5959</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>6230</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>6645</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>7231</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>7731</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>8239</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>8420</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>8377</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>8478</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>8704</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>8964</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>9930</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>10153</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>11065</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>12243</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>11898</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>11307</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>10430</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>10410</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>10230</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>9400</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>9540</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>9510</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>9370</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>9302.868999999999</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>9300</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>8927.799999999999</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>8228.700000000001</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>7501.5</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>7164.770039999999</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>7086.71819</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>6826.30659</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>5396.81339000001</v>
       </c>
-      <c r="AW5">
-        <v>3845.118110000009</v>
-      </c>
-      <c r="AX5">
-        <v>3459.464089999991</v>
-      </c>
-      <c r="AY5">
+      <c r="AW5" t="n">
+        <v>3845.11811000001</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3459.46408999999</v>
+      </c>
+      <c r="AY5" t="n">
         <v>2396.8245022973</v>
       </c>
+      <c r="AZ5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Aviation Turbine Fuel</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>690</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>758</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>816</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>778</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>836</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>900</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>956</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>1041</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>1154</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>1144</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>1130</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>1128</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>1145</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>1208</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>1336</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>1450</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>1603</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>1654</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>1713</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>1775</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>1680</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>1559</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>1565</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>1741</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>1903</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>2080</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>2154</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>2108</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>2112</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>2197</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>2249</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>2260</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>2270</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>2480</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>2810</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>3300</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>3980</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>4540</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>4423.20055</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>4630</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>5078.400000000001</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>5536.1</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>5270.5</v>
       </c>
-      <c r="AS6">
-        <v>5504.5869</v>
-      </c>
-      <c r="AT6">
+      <c r="AS6" t="n">
+        <v>5504.586899999999</v>
+      </c>
+      <c r="AT6" t="n">
         <v>5722.898630000001</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>6261.74492</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>6997.51497</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>7632.684399999999</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>8300.066340000001</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>7998.60903551754</v>
       </c>
+      <c r="AZ6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:52">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>High Speed Diesel Oil</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>3840</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>4340</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4770</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>5404</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>6950</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>6600</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>7106</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>7736</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>8638</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>9801</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>10350</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>10832</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>12013</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>12600</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>13696</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>14890</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>16009</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>17657</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>18795</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>20706</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>21140</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>22680</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>24293</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>25872</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>28261</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>32260</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>35019</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>36071</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>37217</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>39295</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>37958</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>36550</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>36640</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>37070</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>39650</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>40190</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>42900</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>47670</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>51710.357</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>56240</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>60071.1</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>64750</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>69079.89999999999</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>68363.92370999999</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>69416.22012000001</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>74647.07201</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>76026.57125999971</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>81073.43645999969</v>
       </c>
-      <c r="AX7">
-        <v>83528.16559999991</v>
-      </c>
-      <c r="AY7">
+      <c r="AX7" t="n">
+        <v>83528.16559999989</v>
+      </c>
+      <c r="AY7" t="n">
         <v>82602.01250544679</v>
       </c>
+      <c r="AZ7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:52">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Light Diesel Oil</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1090</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1200</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1436</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>1278</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1070</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>880</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>1082</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>1164</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1216</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1266</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>1120</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>1036</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>1067</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>1097</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>1198</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>1120</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>1156</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>1245</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>1437</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>1486</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>1510</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>1462</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>1407</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>1370</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>1369</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>1310</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>1223</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>1235</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>1278</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>1512</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>1399</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>1590</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>2060</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>1620</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>1480</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>880</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>720</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>670</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>552.2569999999999</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>460</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>455.3</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>414.8</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>398.5</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>386.31654</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>365.26345</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>407.10756</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>448.98441</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>523.78752</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>597.96794</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>627.799544639932</v>
       </c>
+      <c r="AZ8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:52">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuel oil</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>4660</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>5142</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>5661</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>5912</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>5729</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>5780</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>5733</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>5839</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>6668</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>7081</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>7470</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>7184</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>7301</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>7558</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>7944</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>7900</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>8047</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>8144</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>8456</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>8820</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>8990</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>9202</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>9267</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>9192</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>9889</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>11160</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>11507</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>11491</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>12510</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>12453</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>12653</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>12980</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>12740</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>12950</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>13540</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>12830</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>12620</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>12720</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
         <v>12588.05593</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" t="n">
         <v>11630</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="n">
         <v>10789.2</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" t="n">
         <v>9306.6</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" t="n">
         <v>7656.4</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>6235.6723</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>5960.856220000001</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>6632.30552</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>7150.42936</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>6720.972040000001</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>6563.57035</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>6301.5391187901</v>
       </c>
+      <c r="AZ9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:52">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Lubricants</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>550</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>362</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>609</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>612</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>475</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>440</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>454</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>478</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>544</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>566</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>590</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>592</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>605</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>617</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>664</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>700</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>755</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>791</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>847</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>926</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>890</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>932</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>846</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>688</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>688</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>960</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>1013</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>1081</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>1097</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>1243</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>1115</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>1140</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>1250</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>1430</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>1350</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>2080</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>1900</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>2290</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>2000</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>2540</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>2429.2</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>2632.6</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>3196</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>3305.305435</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>3310.01253</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>3571.1606</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>3470.06764</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>3883.883312</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>3667.954449</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>3833.38778189226</v>
       </c>
+      <c r="AZ10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:52">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Bitumen</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>780</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>1011</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>1109</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1066</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>399</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>690</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>882</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>908</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>943</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>1069</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>1060</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>1292</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>1379</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>1050</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>935</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>1130</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>1309</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>1379</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>1498</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>1695</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>1580</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>1706</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>1823</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>1824</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>1939</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>2010</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>2273</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>2178</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>2412</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>2879</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>2774</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>2580</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>2990</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>3370</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>3340</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>3510</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>3830</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>4510</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>4746.826793</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>4930</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>4535.599999999999</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>4638.099999999999</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>4676</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>5006.95755</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>5072.832861</v>
       </c>
-      <c r="AU11">
-        <v>5937.938752999999</v>
-      </c>
-      <c r="AV11">
-        <v>5935.501017999999</v>
-      </c>
-      <c r="AW11">
-        <v>6085.851527000001</v>
-      </c>
-      <c r="AX11">
+      <c r="AU11" t="n">
+        <v>5937.938753</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>5935.501018</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6085.851527</v>
+      </c>
+      <c r="AX11" t="n">
         <v>6707.697045</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>6720.36885</v>
       </c>
+      <c r="AZ11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:52">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Petroleum Coke</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>110</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>188</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>141</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>139</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>89</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>150</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>175</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>146</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>155</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>185</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>140</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>174</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>103</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>114</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>234</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>160</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>208</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>246</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>316</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>383</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>290</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>266</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>152</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>132</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>197</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>320</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>276</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>227</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>393</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>328</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>448</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>1800</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>2560</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>2880</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>3130</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>4930</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>5440</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>5950</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>6165.6</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>6590</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>4982.400000000001</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>6137.7</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>10134.8</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>11755.777878</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>14557.450646</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>19297.422279</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>23963.986065</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>25656.728722</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>21345.929281</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>21708.158825</v>
       </c>
+      <c r="AZ12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:52">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Refinery Fuel and Losses</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>1220</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>1228</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1262</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>1229</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>1197</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>1230</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>1299</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>1451</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>1478</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>1440</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>1370</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>1584</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>1738</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>1935</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>2033</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>2490</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>2612</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>2522</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>2790</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>2684</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>2710</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>2629</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>2753</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>2836</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>3137</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>3240</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>3490</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>3514</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>3700</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>5544</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>6900</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>7270</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>7650</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>8240</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>8540</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>9140</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>10920</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>11750</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>12359.338</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>15120</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>16381.309</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>17294.7196</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>18347.203</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>17867.55</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>17669</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>18772.738</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>20069.703</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>21163.693</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>21453.662</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>23509.948</v>
       </c>
+      <c r="AZ13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:52">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Other Pertroleum Products</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>390</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>650</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>525</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>552</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>463</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>460</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>511</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>521</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>549</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>586</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>560</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>538</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>549</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>632</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>667</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>670</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>679</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>721</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>921</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>956</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>1140</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>1106</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>1228</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>1151</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>3328</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>2050</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>2298</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>2259</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>1550</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>2150</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>4869</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>4640</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>5360</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>6650</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>4460</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>4660</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>5830</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>5450</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>4749.97148</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>5400</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>4570</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>4920</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>5510</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>5960</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>5870</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>6350</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>6590</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>8340</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>11720</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>11360</v>
       </c>
+      <c r="AZ14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:52">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Total including Refinery Fuel</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>19140</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>21299</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>22978</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>23574</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>23302</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>23670</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>25400</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>26990</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>29719</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>31323</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>32260</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>34107</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>36395</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>37776</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>40828</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>43360</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>46274</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>48938</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>52882</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>56779</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>57750</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>59603</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>61655</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>63648</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>70650</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>78070</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>82658</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>87804</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>94262</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>102630</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>106974</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>107710</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="n">
         <v>111780</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="n">
         <v>115990</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="n">
         <v>120170</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" t="n">
         <v>122360</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" t="n">
         <v>131670</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" t="n">
         <v>140700</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" t="n">
         <v>145958.090937</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" t="n">
         <v>152920</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" t="n">
         <v>157422.409</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" t="n">
         <v>165422.9196</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" t="n">
         <v>175404.803</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" t="n">
         <v>176274.40352</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" t="n">
         <v>183189.118338</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" t="n">
         <v>203446.640777</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" t="n">
         <v>214666.970432</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" t="n">
         <v>227329.85984</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" t="n">
         <v>234669.960377</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" t="n">
         <v>237636.574449784</v>
       </c>
+      <c r="AZ15" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>